--- a/pred_ohlcv/54_21/2020-01-11 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 RNT ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-2224450.160199999</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-2326528.4671</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2243134.4364</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2243134.4364</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2243029.4364</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2242979.4364</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2242979.4364</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2194347.2944</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-2341804.274499999</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-2336224.274499999</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2432447.05596923</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2648879.05656923</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1080025.448440345</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1859170.517540345</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1756644.910440345</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1811108.936340345</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1405198.875461881</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-603438.915710668</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-969170.1730825217</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-917524.5532825217</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1117704.494982522</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1271500.927682522</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1337206.811182522</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-754461.9668945801</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-287792.1784734075</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-824800.6386727311</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1247527.944872731</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1201307.900172731</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1457917.711872731</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2040611.734272731</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2070081.531272731</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2140274.059372731</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2058070.909398235</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2088247.280798235</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2001419.794398235</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2181955.030498235</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2053075.421998235</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2050979.421998235</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2154224.162598235</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2016706.575298235</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-2127884.847798235</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2215554.320898235</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2461955.283961921</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2803663.781182704</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3024568.978411917</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-2957480.150511917</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2240822.560654767</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2240673.736154767</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2120522.241554767</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2181192.386854767</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2278918.028454767</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2615706.948154767</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2342685.543354767</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2334695.341054767</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2386473.300654767</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-7031171.234037461</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-6233543.296537461</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-5470810.985682668</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-5543988.594982668</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-5543943.468582667</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-5354032.978482667</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4756866.945682667</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 RNT ohlcv.xlsx
@@ -2212,7 +2212,7 @@
         <v>-1080025.448440345</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1859170.517540345</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1756644.910440345</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1811108.936340345</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1405198.875461881</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-603438.915710668</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-969170.1730825217</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-917524.5532825217</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-1117704.494982522</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1271500.927682522</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1337206.811182522</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-754461.9668945801</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-287792.1784734075</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-824800.6386727311</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1247527.944872731</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1201307.900172731</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1457917.711872731</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-2040611.734272731</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-2070081.531272731</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2140274.059372731</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2056988.073698235</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-2058070.909398235</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-2088247.280798235</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-2001419.794398235</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-2181955.030498235</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2053075.421998235</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2050979.421998235</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2154224.162598235</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2016706.575298235</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-2127884.847798235</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-2215554.320898235</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2461955.283961921</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3121324.515861921</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2916739.275461921</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2803663.781182704</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3024568.978411917</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-2240822.560654767</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-2240673.736154767</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-2120522.241554767</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2181192.386854767</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2278918.028454767</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-2615706.948154767</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2553626.618154767</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-2342685.543354767</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2334695.341054767</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2386473.300654767</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2449549.131954767</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-2789147.974754767</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-2744794.860254767</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-2876277.224554767</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2859054.318854767</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3031632.464954767</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-2951365.463354767</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-2962769.421754767</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2967008.230954767</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-2962619.421954767</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2962436.027154767</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2965307.745954767</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-3026113.174154767</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3019097.963054767</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-3097876.281754768</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-3275435.225154768</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-6137098.53933113</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6137598.53933113</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-6196560.83153113</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-6196516.77863113</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-6196516.77863113</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-6183974.29623113</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-6184062.01563113</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6159438.36303113</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6144500.83283113</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6087325.82363113</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6575979.813615546</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6594495.736415545</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6594495.736415545</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6577467.066415546</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6559169.428715546</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-6580935.760515545</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-6602740.099015545</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-6602740.099015545</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-6663109.420315545</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6663065.420315545</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6692902.079315545</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-6713516.760415545</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-6713466.760415545</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-6761776.441815545</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-5877143.75039111</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-5872803.10719111</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-5872803.10719111</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-5669445.46859111</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-5669395.46859111</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-5665104.82539111</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-5536969.50639111</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-5536969.50639111</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-6086463.57939111</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-6259709.38707369</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-6339840.306773691</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-6496027.979905096</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-6569251.488105096</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-6669149.931405096</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-6819791.869805097</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-6549324.306705097</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-6542469.765005097</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-6586380.632805097</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-6659197.440705097</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-7776276.311205097</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-7777846.239005097</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-7750387.161805097</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-7593664.834105097</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-6851724.97583746</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-7009382.11193746</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-7002556.28663746</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-6996151.56003746</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-6889265.144237461</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-6889265.144237461</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-7031907.234037461</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-6968166.88113746</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-6969290.67953746</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-6937003.01353746</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-7029092.46833746</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-6905188.094337461</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-6905230.829437461</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-6643182.365537461</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-6225197.12463746</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-6086524.59033746</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-5621761.029730264</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-4643747.160487713</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-5470810.985682668</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-5543988.594982668</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-5543943.468582667</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-5354032.978482667</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-4756866.945682667</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
